--- a/Excel Visualization/Data_Visualization_Exercises.xlsx
+++ b/Excel Visualization/Data_Visualization_Exercises.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\Documents\3.1 Data Viz Demo Workbooks.zip\Excel Visualization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cs\Computer-Science\Excel Visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6528DB-D371-431E-9AF3-798FA384CE07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90306AD0-B444-4C93-B2E7-E6A698D96E13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="911" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="911" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customizing Charts" sheetId="39" r:id="rId1"/>
+    <sheet name="Formatting chart" sheetId="41" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="arr_x">MOD(ROW(#REF!)-1,10)</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Month</t>
   </si>
@@ -101,7 +102,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -186,7 +187,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="37" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1861,6 +1862,4511 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Chart 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mobile Spend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Customizing Charts'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>359084.54700000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>295945.20200000028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>228830.43479999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>376750.6652000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>343226.54999999987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>164481.34499999988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>161303.88200000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127172.62004999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>111113.96519999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>174805.39439999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>210181.02259704011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>264672.33338202036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB97-46AB-8296-BA3E9146B5B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desktop Spend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Customizing Charts'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>438881.11300000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>308024.59800000035</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>291238.73519999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>347769.84480000031</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>343226.54999999987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>227140.90499999988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>263180.01800000016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>236177.72295000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>215691.81479999988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>273413.56559999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>267503.11966896011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>310702.30440498039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EB97-46AB-8296-BA3E9146B5B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Spend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Customizing Charts'!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>797965.66000000015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>603969.80000000063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>520069.16999999987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>724520.51000000071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>686453.09999999974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>391622.24999999977</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>424483.9000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>363350.34299999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>326805.77999999985</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>448218.95999999985</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>477684.14226600021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>575374.63778700074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EB97-46AB-8296-BA3E9146B5B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clicks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Customizing Charts'!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>568213</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>486398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>459937</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>481632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>478822</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>332313</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>289154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>224080</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>220951</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>268924</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>295562</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330514</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EB97-46AB-8296-BA3E9146B5B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>$/Click</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Customizing Charts'!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.4043424912840785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2417193327275207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1307400143932753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5043030986313217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4336289894783443</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1784740590948888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4680201553497452</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.621520631024634</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4790871279152384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6667123797057899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.616189301283657</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7408480057940079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EB97-46AB-8296-BA3E9146B5B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transactions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Customizing Charts'!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>591</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EB97-46AB-8296-BA3E9146B5B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transaction %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Customizing Charts'!$H$2:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.8725372351565345E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.023034634188463E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0350613236160605E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0555112617101855E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8503744606555253E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1395491599786949E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4969393471990704E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4901820778293468E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1000131250820319E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8890095342922165E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9691299964136122E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7881239523893089E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-EB97-46AB-8296-BA3E9146B5B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="963624512"/>
+        <c:axId val="705154864"/>
+        <c:axId val="680363280"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="963624512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="705154864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="705154864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="963624512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="680363280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="705154864"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Chart1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mobile Spend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Customizing Charts'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>359084.54700000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>295945.20200000028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>228830.43479999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>376750.6652000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>343226.54999999987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>164481.34499999988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>161303.88200000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127172.62004999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>111113.96519999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>174805.39439999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>210181.02259704011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>264672.33338202036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C7D4-4C48-A0B8-846B78549C8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desktop Spend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Customizing Charts'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>438881.11300000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>308024.59800000035</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>291238.73519999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>347769.84480000031</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>343226.54999999987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>227140.90499999988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>263180.01800000016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>236177.72295000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>215691.81479999988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>273413.56559999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>267503.11966896011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>310702.30440498039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C7D4-4C48-A0B8-846B78549C8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Spend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Customizing Charts'!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>797965.66000000015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>603969.80000000063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>520069.16999999987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>724520.51000000071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>686453.09999999974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>391622.24999999977</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>424483.9000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>363350.34299999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>326805.77999999985</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>448218.95999999985</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>477684.14226600021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>575374.63778700074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C7D4-4C48-A0B8-846B78549C8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clicks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Customizing Charts'!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>568213</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>486398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>459937</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>481632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>478822</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>332313</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>289154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>224080</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>220951</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>268924</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>295562</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330514</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C7D4-4C48-A0B8-846B78549C8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>$/Click</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Customizing Charts'!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.4043424912840785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2417193327275207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1307400143932753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5043030986313217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4336289894783443</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1784740590948888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4680201553497452</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.621520631024634</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4790871279152384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6667123797057899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.616189301283657</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7408480057940079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C7D4-4C48-A0B8-846B78549C8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transactions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Customizing Charts'!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>591</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C7D4-4C48-A0B8-846B78549C8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transaction %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Customizing Charts'!$H$2:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.8725372351565345E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.023034634188463E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0350613236160605E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0555112617101855E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8503744606555253E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1395491599786949E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4969393471990704E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4901820778293468E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1000131250820319E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8890095342922165E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9691299964136122E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7881239523893089E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C7D4-4C48-A0B8-846B78549C8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="667987888"/>
+        <c:axId val="705151536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="667987888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="705151536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="705151536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="667987888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="74000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="83000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="74000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Chart</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Spend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Customizing Charts'!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>797965.66000000015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>603969.80000000063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>520069.16999999987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>724520.51000000071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>686453.09999999974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>391622.24999999977</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>424483.9000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>363350.34299999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>326805.77999999985</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>448218.95999999985</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>477684.14226600021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>575374.63778700074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D23F-465F-BCF7-E1A98256344E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clicks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Customizing Charts'!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>568213</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>486398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>459937</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>481632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>478822</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>332313</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>289154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>224080</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>220951</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>268924</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>295562</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330514</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D23F-465F-BCF7-E1A98256344E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="703392704"/>
+        <c:axId val="705160688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="703392704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="705160688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="705160688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703392704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:glow rad="215900">
+        <a:srgbClr val="00B050">
+          <a:alpha val="40000"/>
+        </a:srgbClr>
+      </a:glow>
+      <a:outerShdw blurRad="50800" dist="114300" dir="2700000" sx="117000" sy="117000" algn="tl" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="43000"/>
+        </a:prstClr>
+      </a:outerShdw>
+      <a:softEdge rad="317500"/>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mobile Spend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Customizing Charts'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>359084.54700000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>295945.20200000028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>228830.43479999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>376750.6652000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>343226.54999999987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>164481.34499999988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>161303.88200000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127172.62004999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>111113.96519999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>174805.39439999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>210181.02259704011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>264672.33338202036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-662C-4A04-8C04-BECC028E719A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desktop Spend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4265335235377988E-2"/>
+                  <c:y val="1.6849199663016005E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-662C-4A04-8C04-BECC028E719A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Customizing Charts'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>438881.11300000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>308024.59800000035</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>291238.73519999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>347769.84480000031</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>343226.54999999987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>227140.90499999988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>263180.01800000016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>236177.72295000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>215691.81479999988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>273413.56559999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>267503.11966896011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>310702.30440498039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-662C-4A04-8C04-BECC028E719A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Spend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Customizing Charts'!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>797965.66000000015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>603969.80000000063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>520069.16999999987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>724520.51000000071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>686453.09999999974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>391622.24999999977</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>424483.9000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>363350.34299999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>326805.77999999985</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>448218.95999999985</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>477684.14226600021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>575374.63778700074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:shape val="pyramid"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-662C-4A04-8C04-BECC028E719A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clicks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Customizing Charts'!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>568213</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>486398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>459937</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>481632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>478822</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>332313</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>289154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>224080</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>220951</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>268924</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>295562</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330514</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-662C-4A04-8C04-BECC028E719A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>$/Click</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Customizing Charts'!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.4043424912840785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2417193327275207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1307400143932753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5043030986313217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4336289894783443</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1784740590948888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4680201553497452</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.621520631024634</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4790871279152384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6667123797057899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.616189301283657</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7408480057940079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-662C-4A04-8C04-BECC028E719A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transactions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Customizing Charts'!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>591</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-662C-4A04-8C04-BECC028E719A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transaction %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Customizing Charts'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Customizing Charts'!$H$2:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.8725372351565345E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.023034634188463E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0350613236160605E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0555112617101855E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8503744606555253E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1395491599786949E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4969393471990704E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4901820778293468E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1000131250820319E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8890095342922165E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9691299964136122E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7881239523893089E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-662C-4A04-8C04-BECC028E719A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="963624512"/>
+        <c:axId val="705154864"/>
+        <c:axId val="680363280"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="963624512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="705154864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="705154864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="963624512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="680363280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="705154864"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1941,6 +6447,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2915,6 +7581,2000 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3016,6 +9676,161 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82C83CF-D337-45C5-A6D5-46FE23AABF7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B5EDE76-9315-46B2-8565-22572CA29DCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B421E0A9-0BC8-4B57-8D81-A2DF409B1C79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{055068A5-6ADA-4763-BE54-F93CDB0DCF41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3326,8 +10141,505 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="14.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7">
+        <v>359084.54700000008</v>
+      </c>
+      <c r="C2" s="8">
+        <v>438881.11300000007</v>
+      </c>
+      <c r="D2" s="7">
+        <v>797965.66000000015</v>
+      </c>
+      <c r="E2" s="9">
+        <v>568213</v>
+      </c>
+      <c r="F2" s="10">
+        <f t="shared" ref="F2:F13" si="0">D2/E2</f>
+        <v>1.4043424912840785</v>
+      </c>
+      <c r="G2" s="11">
+        <v>1064</v>
+      </c>
+      <c r="H2" s="12">
+        <f>G2/E2</f>
+        <v>1.8725372351565345E-3</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7">
+        <v>295945.20200000028</v>
+      </c>
+      <c r="C3" s="8">
+        <v>308024.59800000035</v>
+      </c>
+      <c r="D3" s="7">
+        <v>603969.80000000063</v>
+      </c>
+      <c r="E3" s="9">
+        <v>486398</v>
+      </c>
+      <c r="F3" s="10">
+        <f t="shared" si="0"/>
+        <v>1.2417193327275207</v>
+      </c>
+      <c r="G3" s="11">
+        <v>984</v>
+      </c>
+      <c r="H3" s="12">
+        <f t="shared" ref="H3:H13" si="1">G3/E3</f>
+        <v>2.023034634188463E-3</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
+        <v>228830.43479999993</v>
+      </c>
+      <c r="C4" s="8">
+        <v>291238.73519999994</v>
+      </c>
+      <c r="D4" s="7">
+        <v>520069.16999999987</v>
+      </c>
+      <c r="E4" s="9">
+        <v>459937</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1307400143932753</v>
+      </c>
+      <c r="G4" s="11">
+        <v>936</v>
+      </c>
+      <c r="H4" s="12">
+        <f t="shared" si="1"/>
+        <v>2.0350613236160605E-3</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>376750.6652000004</v>
+      </c>
+      <c r="C5" s="8">
+        <v>347769.84480000031</v>
+      </c>
+      <c r="D5" s="7">
+        <v>724520.51000000071</v>
+      </c>
+      <c r="E5" s="9">
+        <v>481632</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5043030986313217</v>
+      </c>
+      <c r="G5" s="11">
+        <v>990</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="1"/>
+        <v>2.0555112617101855E-3</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7">
+        <v>343226.54999999987</v>
+      </c>
+      <c r="C6" s="8">
+        <v>343226.54999999987</v>
+      </c>
+      <c r="D6" s="7">
+        <v>686453.09999999974</v>
+      </c>
+      <c r="E6" s="9">
+        <v>478822</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
+        <v>1.4336289894783443</v>
+      </c>
+      <c r="G6" s="11">
+        <v>886</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" si="1"/>
+        <v>1.8503744606555253E-3</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7">
+        <v>164481.34499999988</v>
+      </c>
+      <c r="C7" s="8">
+        <v>227140.90499999988</v>
+      </c>
+      <c r="D7" s="7">
+        <v>391622.24999999977</v>
+      </c>
+      <c r="E7" s="9">
+        <v>332313</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1784740590948888</v>
+      </c>
+      <c r="G7" s="11">
+        <v>711</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="1"/>
+        <v>2.1395491599786949E-3</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7">
+        <v>161303.88200000007</v>
+      </c>
+      <c r="C8" s="8">
+        <v>263180.01800000016</v>
+      </c>
+      <c r="D8" s="7">
+        <v>424483.9000000002</v>
+      </c>
+      <c r="E8" s="9">
+        <v>289154</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
+        <v>1.4680201553497452</v>
+      </c>
+      <c r="G8" s="11">
+        <v>722</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="1"/>
+        <v>2.4969393471990704E-3</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7">
+        <v>127172.62004999998</v>
+      </c>
+      <c r="C9" s="8">
+        <v>236177.72295000002</v>
+      </c>
+      <c r="D9" s="7">
+        <v>363350.34299999999</v>
+      </c>
+      <c r="E9" s="9">
+        <v>224080</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="0"/>
+        <v>1.621520631024634</v>
+      </c>
+      <c r="G9" s="11">
+        <v>558</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="1"/>
+        <v>2.4901820778293468E-3</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7">
+        <v>111113.96519999996</v>
+      </c>
+      <c r="C10" s="8">
+        <v>215691.81479999988</v>
+      </c>
+      <c r="D10" s="7">
+        <v>326805.77999999985</v>
+      </c>
+      <c r="E10" s="9">
+        <v>220951</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="0"/>
+        <v>1.4790871279152384</v>
+      </c>
+      <c r="G10" s="11">
+        <v>464</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="1"/>
+        <v>2.1000131250820319E-3</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7">
+        <v>174805.39439999993</v>
+      </c>
+      <c r="C11" s="8">
+        <v>273413.56559999991</v>
+      </c>
+      <c r="D11" s="7">
+        <v>448218.95999999985</v>
+      </c>
+      <c r="E11" s="9">
+        <v>268924</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6667123797057899</v>
+      </c>
+      <c r="G11" s="11">
+        <v>508</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="1"/>
+        <v>1.8890095342922165E-3</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7">
+        <v>210181.02259704011</v>
+      </c>
+      <c r="C12" s="8">
+        <v>267503.11966896011</v>
+      </c>
+      <c r="D12" s="7">
+        <v>477684.14226600021</v>
+      </c>
+      <c r="E12" s="9">
+        <v>295562</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>1.616189301283657</v>
+      </c>
+      <c r="G12" s="11">
+        <v>582</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="1"/>
+        <v>1.9691299964136122E-3</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7">
+        <v>264672.33338202036</v>
+      </c>
+      <c r="C13" s="8">
+        <v>310702.30440498039</v>
+      </c>
+      <c r="D13" s="7">
+        <v>575374.63778700074</v>
+      </c>
+      <c r="E13" s="9">
+        <v>330514</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
+        <v>1.7408480057940079</v>
+      </c>
+      <c r="G13" s="11">
+        <v>591</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="1"/>
+        <v>1.7881239523893089E-3</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A53F7A-0B0C-4614-BC4C-B17CE4975A84}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
